--- a/Local/Data/Export/DQ-Report_fhirTestData_2020 .xlsx
+++ b/Local/Data/Export/DQ-Report_fhirTestData_2020 .xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,22 +496,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0009752</t>
+          <t>260123451-Airolo-P-0009750</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010244</t>
+          <t>260123451-Airolo-F-0010242</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>G71.0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>98896</t>
+          <t>K35.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -523,22 +518,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010001</t>
+          <t>260123451-Airolo-P-0009999</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010500</t>
+          <t>260123451-Airolo-F-0010498</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D86.0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>797</t>
+          <t>I50.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -550,22 +540,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010002</t>
+          <t>260123451-Airolo-P-0010000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010501</t>
+          <t>260123451-Airolo-F-0010499</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D86.1</t>
+          <t>I40.8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>329874</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -577,17 +567,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010003</t>
+          <t>260123451-Airolo-P-0010001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010502</t>
+          <t>260123451-Airolo-F-0010500</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D86.3</t>
+          <t>D86.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -604,22 +594,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010008</t>
+          <t>260123451-Airolo-P-0010006</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010507</t>
+          <t>260123451-Airolo-F-0010505</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D86.8</t>
+          <t>K83.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>447764</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -631,22 +621,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010100</t>
+          <t>260123451-Airolo-P-0010098</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010604</t>
+          <t>260123451-Airolo-F-0010602</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>E03.0</t>
+          <t>E70.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>79254</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -658,22 +648,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010101</t>
+          <t>260123451-Airolo-P-0010099</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010605</t>
+          <t>260123451-Airolo-F-0010603</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>E03.1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>797</t>
+          <t>N81.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -685,17 +670,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010202</t>
+          <t>260123451-Airolo-P-0010200</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010711</t>
+          <t>260123451-Airolo-F-0010709</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>E84.8</t>
+          <t>E84.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -712,27 +697,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>260123451-Airolo-P-0010205</t>
+          <t>260123451-Airolo-P-0010203</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>260123451-Airolo-F-0010714</t>
+          <t>260123451-Airolo-F-0010712</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E84.87</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>586</t>
+          <t>M17.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code E84.87 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Folgende mandatorische Items fehlen:  Kontakt-Klasse , DiagnoseRolle</t>
         </is>
       </c>
     </row>
@@ -743,7 +730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -792,40 +779,45 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>duplication_rate</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>unique_rdCase_relativeFrequency</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>orphaCoding_relativeFrequency</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>orphaCoding_no</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>unique_rdCase_no</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>rdCase_no</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>case_no</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>patient_no</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>inpatientCases_no</t>
         </is>
@@ -841,7 +833,7 @@
         <v>2020</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>13.33</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -859,27 +851,30 @@
         <v>90.31999999999999</v>
       </c>
       <c r="I2">
+        <v>0.2</v>
+      </c>
+      <c r="J2">
         <v>1.12</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.24</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>124</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>112</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>124</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>962</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>10000</v>
       </c>
     </row>
